--- a/raw/Constructions.xlsx
+++ b/raw/Constructions.xlsx
@@ -2871,7 +2871,7 @@
     <t>A recipient NP is a direct object; theme argument is not direct object, cannot be passivized, doesn’t determine agreement; recipient can be passivized, agrees in number with the verb, antecedes REFL; neutral</t>
   </si>
   <si>
-    <t>both objects normally ACC; “A pattern in which a traditional IO appears to be the true DO of a a ditransitive verb is found in a wide range of languages. Within the Ngayarda group, Yinyjiparnti shoes the Panyjima constraints on the subjects of passive ditransitives, but Martuthemira allows both G an T subjects.” (Dench 1991:194)</t>
+    <t>Both objects are normally in the accusative; “A pattern in which a traditional IO appears to be the true DO of a a ditransitive verb is found in a wide range of languages. Within the Ngayarda group, Yinyjiparnti shoes the Panyjima constraints on the subjects of passive ditransitives, but Martuthemira allows both R and T subjects.” (Dench 1991: 194)</t>
   </si>
   <si>
     <t>193-194</t>
@@ -18564,16 +18564,13 @@
         <v>2</v>
       </c>
       <c r="G909" s="12">
-        <v>7426</v>
+        <v>46071628130</v>
       </c>
       <c r="H909" s="13">
         <v>782</v>
       </c>
     </row>
     <row r="910">
-      <c r="G910" s="12">
-        <v>46071628130</v>
-      </c>
       <c r="H910" s="13">
         <v>46071617889</v>
       </c>
